--- a/Data/Exports/invo2.xlsx
+++ b/Data/Exports/invo2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -77,7 +77,8 @@
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>Monoprice, Inc.</x:t>
+    <x:t>Accounts Payable
+Hach Company</x:t>
   </x:si>
   <x:si>
     <x:t>11701 6th Street Rancho Cucamonga, CA 91730, USA</x:t>
@@ -104,10 +105,7 @@
     <x:t>491056-1</x:t>
   </x:si>
   <x:si>
-    <x:t>0.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70.00</x:t>
+    <x:t>$70.00</x:t>
   </x:si>
   <x:si>
     <x:t>USD</x:t>
@@ -595,16 +593,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -694,19 +692,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
         <x:v>26</x:v>
@@ -718,16 +716,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/invo2.xlsx
+++ b/Data/Exports/invo2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -103,6 +103,9 @@
   </x:si>
   <x:si>
     <x:t>491056-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00</x:t>
   </x:si>
   <x:si>
     <x:t>$70.00</x:t>
@@ -593,16 +596,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -692,19 +695,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
         <x:v>26</x:v>
@@ -716,16 +719,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/invo2.xlsx
+++ b/Data/Exports/invo2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -81,70 +81,13 @@
 Hach Company</x:t>
   </x:si>
   <x:si>
-    <x:t>11701 6th Street Rancho Cucamonga, CA 91730, USA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hach Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PO Box 389 Loveland, CO 80539 UNITED STATES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hach Company 5600 Lindbergh Dr PO 491056-1 Loveland, CO 80538-8842 UNITED STATES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monoprice, Inc. PO Box 740417 Los Angeles, CA 90074-0417 USA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-01-08</x:t>
-  </x:si>
-  <x:si>
     <x:t>19583668</x:t>
   </x:si>
   <x:si>
     <x:t>491056-1</x:t>
   </x:si>
   <x:si>
-    <x:t>0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>$70.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","11701 6th Street"
-"City","Rancho Cucamonga"
-"Country","United States"
-"State / County / Province","California"
-"Zip Postal Code","91730"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 2","PO Box 389"
-"City","Loveland"
-"Country","United States"
-"State / County / Province","Colorado"
-"Zip Postal Code","80539"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","Hach Company 5600 Lindbergh Dr"
-"Address Line 2","PO 491056-1 80538-8842"
-"City","Loveland"
-"Country","United States"
-"State / County / Province","Colorado"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","Monoprice Inc"
-"Address Line 2","PO Box 740417"
-"City","Los Angeles"
-"Country","United States"
-"State / County / Province","California"
-"Zip Postal Code","90074-0417"</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -571,41 +514,17 @@
       <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -694,41 +613,21 @@
       <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
+      <x:c r="K2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
